--- a/Venkat-assignments/Project/OTT_platform_recommendation_scenarios.xlsx
+++ b/Venkat-assignments/Project/OTT_platform_recommendation_scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdas832\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup_small\SQL\For_SQL\Venkat-assignments\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B21D71-A94A-4E9F-99A8-855F223310E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E064C06-F49E-4D47-A56B-147CD20C261B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7CD00ED3-2BE6-4FAA-A5E5-60635C328128}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{7CD00ED3-2BE6-4FAA-A5E5-60635C328128}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="19">
   <si>
     <t>AMAZON PRIME DATASET</t>
   </si>
@@ -102,10 +102,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,9 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -453,64 +464,68 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C25:C29"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="122.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="122.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -521,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -529,7 +544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -537,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4</v>
       </c>
@@ -545,7 +560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -553,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -564,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -572,7 +587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>3</v>
       </c>
@@ -580,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>4</v>
       </c>
@@ -588,7 +603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
